--- a/砖.xlsx
+++ b/砖.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>客厅</t>
   </si>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>墙砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地脚线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +105,126 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视墙石线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买深色瓷砖，由工人裁剪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海宏创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些数据：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5元1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13元1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣保罗厨房门单包边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC600*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC800*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂900*200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17元1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂900*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12元1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂600*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5元1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5元1米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂踢脚线10cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108元1米，共630元，贴瓷砖人工辅料370元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -155,16 +259,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,33 +290,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,354 +738,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="6" customWidth="1"/>
+    <col min="7" max="9" width="12.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="22.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D20" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="33">
+      <c r="A38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A42" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/砖.xlsx
+++ b/砖.xlsx
@@ -242,6 +242,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -352,53 +353,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,577 +742,578 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="6" customWidth="1"/>
-    <col min="7" max="9" width="12.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="5" customWidth="1"/>
+    <col min="7" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15" t="s">
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15" t="s">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15" t="s">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15" t="s">
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15" t="s">
+      <c r="D31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15" t="s">
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="33">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -1324,7 +1326,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/砖.xlsx
+++ b/砖.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>客厅</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>108元1米，共630元，贴瓷砖人工辅料370元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -334,13 +338,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +441,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,580 +792,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="5" customWidth="1"/>
-    <col min="7" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="22.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="5" customWidth="1"/>
+    <col min="8" max="10" width="12.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" thickBot="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="23.25" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4" t="s">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:11" ht="41.25" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4" t="s">
+      <c r="E14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
+      <c r="E15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="18" t="s">
+      <c r="E18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4" t="s">
+      <c r="E19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:7" ht="71.25" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="18"/>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="33">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="33">
       <c r="A37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="33">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="33">
       <c r="A38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" ht="66">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="66">
       <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="33">
       <c r="A40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="33">
       <c r="A41" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="33">
       <c r="A42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="33">
       <c r="A43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>

--- a/砖.xlsx
+++ b/砖.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>采购点：中海宏创</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,16 +140,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装时裁切，约16cm宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9018B
 800*800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D815B16
+900*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM69818
+900*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3032
+300*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时加工，切成800*400，长边开V线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时加工，裁切成900*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量（已预5%损耗面积）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,19 +709,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="9" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -705,19 +731,21 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="18">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>16</v>
@@ -726,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>20</v>
@@ -743,13 +771,13 @@
         <v>18</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11">
         <v>68</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="11">
         <v>23</v>
@@ -761,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="B4" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="11">
         <v>125</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="11">
         <v>42</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.5">
@@ -793,15 +821,17 @@
         <v>18</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11">
         <v>73</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="34.5">
@@ -815,15 +845,17 @@
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11">
         <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G6" s="11">
+        <v>13</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="34.5">
@@ -837,15 +869,17 @@
         <v>18</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11">
         <v>162</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="11">
+        <v>11</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="34.5">
@@ -859,15 +893,17 @@
         <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="11">
         <v>350</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G8" s="11">
+        <v>44</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="34.5">
@@ -875,25 +911,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="11">
         <v>5</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25">
@@ -901,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="34.5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -911,13 +947,21 @@
       <c r="C12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11">
+        <v>450</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.5">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -927,13 +971,23 @@
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>72</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -943,11 +997,19 @@
       <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6</v>
+      </c>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
@@ -968,9 +1030,9 @@
         <v>18</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
@@ -980,9 +1042,9 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="13"/>
     </row>
   </sheetData>
